--- a/mbs-perturbation/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6320474777448071</v>
+        <v>0.6112676056338028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.9819004524886877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7534722222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8555107389283594</v>
+        <v>0.8621752216375587</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7091503267973857</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9863636363636363</v>
+        <v>0.9409090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8250950570342206</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.913821472645002</v>
+        <v>0.9885232414644179</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8875</v>
+        <v>0.9678899082568807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9681818181818181</v>
+        <v>0.9590909090909091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9260869565217391</v>
+        <v>0.9634703196347032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9639243109831346</v>
+        <v>0.9922254216371863</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9681818181818181</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9638009049773756</v>
+        <v>0.9457013574660633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9659863945578231</v>
+        <v>0.9720930232558139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9922254216371864</v>
+        <v>0.9912176059234882</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9366515837104072</v>
+        <v>0.9683257918552036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9672897196261683</v>
+        <v>0.9839080459770114</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9990950226244344</v>
+        <v>0.9998971616618675</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.839375924544802</v>
+        <v>0.9139176271800504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9637597696421226</v>
+        <v>0.9591855203619909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.889579797591001</v>
+        <v>0.9275957152249431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9449153933636232</v>
+        <v>0.9668077304649036</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/MLP/nearmiss/bloated-mlp-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6112676056338028</v>
+        <v>0.6072507552870091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9819004524886877</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7534722222222222</v>
+        <v>0.755639097744361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8621752216375587</v>
+        <v>0.871673968466127</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9904306220095693</v>
+        <v>0.9209302325581395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9409090909090909</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.965034965034965</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9885232414644179</v>
+        <v>0.9926239449518576</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9678899082568807</v>
+        <v>0.961352657004831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9590909090909091</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9634703196347032</v>
+        <v>0.9754901960784315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9922254216371863</v>
+        <v>0.9933417489666098</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9457013574660633</v>
+        <v>0.985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9720930232558139</v>
+        <v>0.9924433249370278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9912176059234882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9683257918552036</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9839080459770114</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998971616618675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9139176271800504</v>
+        <v>0.8979067289699959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9591855203619909</v>
+        <v>0.9890398009950248</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9275957152249431</v>
+        <v>0.9335953797380832</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9668077304649036</v>
+        <v>0.9715279324769188</v>
       </c>
     </row>
   </sheetData>
